--- a/testcase (Autosaved).xlsx
+++ b/testcase (Autosaved).xlsx
@@ -130,9 +130,6 @@
     <t>Pre-condition</t>
   </si>
   <si>
-    <t>Step produce</t>
-  </si>
-  <si>
     <t>Expected result</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>Check "Email Address or Username" with the beginning of 'http://'</t>
+  </si>
+  <si>
+    <t>Step proceduce</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1178,16 +1178,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" s="20">
         <v>34</v>
@@ -1206,24 +1206,24 @@
         <v>37</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -1238,19 +1238,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1260,17 +1260,17 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1280,17 +1280,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1300,17 +1300,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1320,17 +1320,17 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1340,17 +1340,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1360,17 +1360,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1380,17 +1380,17 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1400,17 +1400,17 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1420,17 +1420,17 @@
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1440,17 +1440,17 @@
         <v>12</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1460,17 +1460,17 @@
         <v>13</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1480,17 +1480,17 @@
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1500,17 +1500,17 @@
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1520,17 +1520,17 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -1540,17 +1540,17 @@
         <v>17</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1564,13 +1564,13 @@
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1580,17 +1580,17 @@
         <v>19</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1600,17 +1600,17 @@
         <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1620,15 +1620,15 @@
         <v>21</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1638,15 +1638,15 @@
         <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1656,15 +1656,15 @@
         <v>23</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1674,15 +1674,15 @@
         <v>24</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1692,15 +1692,15 @@
         <v>25</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1710,15 +1710,15 @@
         <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1728,15 +1728,15 @@
         <v>27</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1746,15 +1746,15 @@
         <v>28</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1764,15 +1764,15 @@
         <v>29</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1782,15 +1782,15 @@
         <v>30</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1800,15 +1800,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1818,15 +1818,15 @@
         <v>32</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1836,53 +1836,53 @@
         <v>33</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="47.25">
       <c r="A40" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
